--- a/notebooks/data/er and sigma for homogeneous phantom trials_4.xlsx
+++ b/notebooks/data/er and sigma for homogeneous phantom trials_4.xlsx
@@ -503,7 +503,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.1872270814529136</v>
+        <v>0.1872270814529139</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.2957026588983215</v>
+        <v>0.2957026588983219</v>
       </c>
     </row>
     <row r="10">
@@ -599,7 +599,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.386648226510683</v>
+        <v>0.3866482265106835</v>
       </c>
     </row>
     <row r="14">
@@ -647,7 +647,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.4600637842899977</v>
+        <v>0.4600637842899984</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.5159493322362658</v>
+        <v>0.5159493322362666</v>
       </c>
     </row>
     <row r="22">
@@ -791,7 +791,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.2921986730495467</v>
+        <v>0.2921986730495466</v>
       </c>
     </row>
     <row r="30">
@@ -839,7 +839,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.3851577685978043</v>
+        <v>0.3851577685978041</v>
       </c>
     </row>
     <row r="34">
@@ -887,7 +887,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.4619892692434522</v>
+        <v>0.461989269243452</v>
       </c>
     </row>
     <row r="38">
@@ -935,7 +935,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>0.5226931749864903</v>
+        <v>0.52269317498649</v>
       </c>
     </row>
     <row r="42">
@@ -1031,7 +1031,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>0.2863406689041614</v>
+        <v>0.2863406689041613</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>0.3808696301547354</v>
+        <v>0.3808696301547352</v>
       </c>
     </row>
     <row r="54">
@@ -1127,7 +1127,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>0.4612930123106819</v>
+        <v>0.4612930123106816</v>
       </c>
     </row>
     <row r="58">
@@ -1175,7 +1175,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>0.5276108153720008</v>
+        <v>0.5276108153720006</v>
       </c>
     </row>
     <row r="62">
@@ -1223,7 +1223,7 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>0.1721129806415283</v>
+        <v>0.172112980641528</v>
       </c>
     </row>
     <row r="66">
@@ -1271,7 +1271,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>0.2798241352162618</v>
+        <v>0.2798241352162615</v>
       </c>
     </row>
     <row r="70">
@@ -1319,7 +1319,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>0.3757519585346525</v>
+        <v>0.3757519585346522</v>
       </c>
     </row>
     <row r="74">
@@ -1367,7 +1367,7 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>0.4598964505967007</v>
+        <v>0.4598964505967001</v>
       </c>
     </row>
     <row r="78">
@@ -1415,7 +1415,7 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>0.5322576114024062</v>
+        <v>0.5322576114024057</v>
       </c>
     </row>
     <row r="82">
@@ -1463,7 +1463,7 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>0.1693779420377535</v>
+        <v>0.1693779420377537</v>
       </c>
     </row>
     <row r="86">
@@ -1511,7 +1511,7 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>0.2765206269140624</v>
+        <v>0.2765206269140628</v>
       </c>
     </row>
     <row r="90">
@@ -1559,7 +1559,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>0.373104793976084</v>
+        <v>0.3731047939760843</v>
       </c>
     </row>
     <row r="94">
@@ -1607,7 +1607,7 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>0.4591304432238181</v>
+        <v>0.4591304432238183</v>
       </c>
     </row>
     <row r="98">
@@ -1655,7 +1655,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>0.5345975746572645</v>
+        <v>0.5345975746572647</v>
       </c>
     </row>
     <row r="102">
@@ -1703,7 +1703,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>0.1667103652006453</v>
+        <v>0.1667103652006455</v>
       </c>
     </row>
     <row r="106">
@@ -1751,7 +1751,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>0.2732334579649191</v>
+        <v>0.2732334579649193</v>
       </c>
     </row>
     <row r="110">
@@ -1799,7 +1799,7 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>0.3704490788128927</v>
+        <v>0.370449078812893</v>
       </c>
     </row>
     <row r="114">
@@ -1847,7 +1847,7 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>0.4583572277445663</v>
+        <v>0.4583572277445664</v>
       </c>
     </row>
     <row r="118">
@@ -1895,7 +1895,7 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>0.5369579047599395</v>
+        <v>0.5369579047599397</v>
       </c>
     </row>
     <row r="122">
@@ -1943,7 +1943,7 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>0.1616285578611627</v>
+        <v>0.1616285578611621</v>
       </c>
     </row>
     <row r="126">
@@ -1991,7 +1991,7 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>0.266809658102843</v>
+        <v>0.2668096581028422</v>
       </c>
     </row>
     <row r="130">
@@ -2039,7 +2039,7 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>0.3652263971576761</v>
+        <v>0.3652263971576752</v>
       </c>
     </row>
     <row r="134">
@@ -2087,7 +2087,7 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>0.4568787750256622</v>
+        <v>0.4568787750256613</v>
       </c>
     </row>
     <row r="138">
@@ -2135,7 +2135,7 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>0.5417667917068011</v>
+        <v>0.5417667917068</v>
       </c>
     </row>
     <row r="142">
@@ -2183,7 +2183,7 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>0.1569250917708307</v>
+        <v>0.1569250917708311</v>
       </c>
     </row>
     <row r="146">
@@ -2231,7 +2231,7 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>0.2606944922214476</v>
+        <v>0.260694492221448</v>
       </c>
     </row>
     <row r="150">
@@ -2279,7 +2279,7 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>0.3602478385694922</v>
+        <v>0.3602478385694927</v>
       </c>
     </row>
     <row r="154">
@@ -2327,7 +2327,7 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>0.4555851308149649</v>
+        <v>0.4555851308149655</v>
       </c>
     </row>
     <row r="158">
@@ -2375,7 +2375,7 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>0.5467063689578656</v>
+        <v>0.5467063689578662</v>
       </c>
     </row>
     <row r="162">
@@ -2423,7 +2423,7 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>0.1526274072853061</v>
+        <v>0.1526274072853063</v>
       </c>
     </row>
     <row r="166">
@@ -2471,7 +2471,7 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>0.2549835960407703</v>
+        <v>0.2549835960407705</v>
       </c>
     </row>
     <row r="170">
@@ -2519,7 +2519,7 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>0.3556297235754933</v>
+        <v>0.3556297235754934</v>
       </c>
     </row>
     <row r="174">
@@ -2567,7 +2567,7 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>0.4545657898894749</v>
+        <v>0.4545657898894753</v>
       </c>
     </row>
     <row r="178">
@@ -2615,7 +2615,7 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>0.5517917949827156</v>
+        <v>0.5517917949827158</v>
       </c>
     </row>
     <row r="182">
@@ -2663,7 +2663,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>0.1452880002979982</v>
+        <v>0.1452880002979984</v>
       </c>
     </row>
     <row r="186">
@@ -2711,7 +2711,7 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>0.2450170404410924</v>
+        <v>0.2450170404410926</v>
       </c>
     </row>
     <row r="190">
@@ -2759,7 +2759,7 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
-        <v>0.3477830055252292</v>
+        <v>0.3477830055252294</v>
       </c>
     </row>
     <row r="194">
@@ -2807,7 +2807,7 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>0.4535858955504086</v>
+        <v>0.4535858955504089</v>
       </c>
     </row>
     <row r="198">
@@ -2855,7 +2855,7 @@
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>0.5624257105166306</v>
+        <v>0.562425710516631</v>
       </c>
     </row>
     <row r="202">
@@ -2903,7 +2903,7 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>0.1373508073267725</v>
+        <v>0.1373508073267721</v>
       </c>
     </row>
     <row r="206">
@@ -2951,7 +2951,7 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>0.234090959182375</v>
+        <v>0.2340909591823745</v>
       </c>
     </row>
     <row r="210">
@@ -2999,7 +2999,7 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>0.3400150519259279</v>
+        <v>0.3400150519259273</v>
       </c>
     </row>
     <row r="214">
@@ -3047,7 +3047,7 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>0.4551230855574313</v>
+        <v>0.4551230855574306</v>
       </c>
     </row>
     <row r="218">
@@ -3095,7 +3095,7 @@
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>0.5794150600768851</v>
+        <v>0.5794150600768844</v>
       </c>
     </row>
     <row r="222">
@@ -3143,7 +3143,7 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>0.1327725381116365</v>
+        <v>0.1327725381116368</v>
       </c>
     </row>
     <row r="226">
@@ -3191,7 +3191,7 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>0.2279604157655385</v>
+        <v>0.2279604157655389</v>
       </c>
     </row>
     <row r="230">
@@ -3239,7 +3239,7 @@
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>0.3371274642755783</v>
+        <v>0.3371274642755788</v>
       </c>
     </row>
     <row r="234">
@@ -3287,7 +3287,7 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>0.4602736836417561</v>
+        <v>0.4602736836417565</v>
       </c>
     </row>
     <row r="238">
@@ -3335,7 +3335,7 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>0.5973990738640718</v>
+        <v>0.5973990738640723</v>
       </c>
     </row>
     <row r="242">
@@ -3383,7 +3383,7 @@
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>0.1313029335006236</v>
+        <v>0.1313029335006233</v>
       </c>
     </row>
     <row r="246">
@@ -3431,7 +3431,7 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>0.2262352217267895</v>
+        <v>0.2262352217267892</v>
       </c>
     </row>
     <row r="250">
@@ -3479,7 +3479,7 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>0.3376137802698874</v>
+        <v>0.3376137802698871</v>
       </c>
     </row>
     <row r="254">
@@ -3527,7 +3527,7 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>0.4654386091299176</v>
+        <v>0.4654386091299171</v>
       </c>
     </row>
     <row r="258">
@@ -3575,7 +3575,7 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>0.6097097083068799</v>
+        <v>0.6097097083068793</v>
       </c>
     </row>
     <row r="262">
@@ -3863,7 +3863,7 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>0.1520369671918687</v>
+        <v>0.1520369671918685</v>
       </c>
     </row>
     <row r="286">
@@ -3911,7 +3911,7 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>0.2633556171404954</v>
+        <v>0.2633556171404952</v>
       </c>
     </row>
     <row r="290">
@@ -3959,7 +3959,7 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>0.3965398895909233</v>
+        <v>0.3965398895909229</v>
       </c>
     </row>
     <row r="294">
@@ -4007,7 +4007,7 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>0.551589784543152</v>
+        <v>0.5515897845431517</v>
       </c>
     </row>
     <row r="298">
@@ -4055,7 +4055,7 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>0.7285053019971818</v>
+        <v>0.7285053019971814</v>
       </c>
     </row>
     <row r="302">
@@ -4103,7 +4103,7 @@
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
-        <v>0.1707181422782896</v>
+        <v>0.1707181422782895</v>
       </c>
     </row>
     <row r="306">
@@ -4151,7 +4151,7 @@
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="n">
-        <v>0.2943616356542225</v>
+        <v>0.2943616356542222</v>
       </c>
     </row>
     <row r="310">
@@ -4199,7 +4199,7 @@
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>0.4373296743964025</v>
+        <v>0.4373296743964024</v>
       </c>
     </row>
     <row r="314">
@@ -4247,7 +4247,7 @@
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
-        <v>0.5996222585048296</v>
+        <v>0.5996222585048295</v>
       </c>
     </row>
     <row r="318">
@@ -4295,7 +4295,7 @@
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="n">
-        <v>0.7812393879795039</v>
+        <v>0.781239387979504</v>
       </c>
     </row>
     <row r="322">
@@ -4391,7 +4391,7 @@
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="n">
-        <v>0.3261742667454768</v>
+        <v>0.326174266745477</v>
       </c>
     </row>
     <row r="330">
@@ -4439,7 +4439,7 @@
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="n">
-        <v>0.4782676195259501</v>
+        <v>0.4782676195259503</v>
       </c>
     </row>
     <row r="334">
@@ -4487,7 +4487,7 @@
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="n">
-        <v>0.6464841705924091</v>
+        <v>0.6464841705924094</v>
       </c>
     </row>
     <row r="338">
@@ -4535,7 +4535,7 @@
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="n">
-        <v>0.8308239199448539</v>
+        <v>0.8308239199448542</v>
       </c>
     </row>
     <row r="342">
@@ -4583,7 +4583,7 @@
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="n">
-        <v>0.2097940921206263</v>
+        <v>0.2097940921206264</v>
       </c>
     </row>
     <row r="346">
@@ -4631,7 +4631,7 @@
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="n">
-        <v>0.357734168514829</v>
+        <v>0.3577341685148293</v>
       </c>
     </row>
     <row r="350">
@@ -4679,7 +4679,7 @@
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="n">
-        <v>0.51852010705917</v>
+        <v>0.5185201070591705</v>
       </c>
     </row>
     <row r="354">
@@ -4727,7 +4727,7 @@
       <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="n">
-        <v>0.6921519077536491</v>
+        <v>0.6921519077536498</v>
       </c>
     </row>
     <row r="358">
@@ -4775,7 +4775,7 @@
       <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="n">
-        <v>0.8786295705982664</v>
+        <v>0.8786295705982672</v>
       </c>
     </row>
     <row r="362">
@@ -4823,7 +4823,7 @@
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="n">
-        <v>0.2293430805724565</v>
+        <v>0.2293430805724566</v>
       </c>
     </row>
     <row r="366">
@@ -4871,7 +4871,7 @@
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="n">
-        <v>0.3888721780053267</v>
+        <v>0.3888721780053268</v>
       </c>
     </row>
     <row r="370">
@@ -4919,7 +4919,7 @@
       <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="n">
-        <v>0.5581075992523828</v>
+        <v>0.558107599252383</v>
       </c>
     </row>
     <row r="374">
@@ -4967,7 +4967,7 @@
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="n">
-        <v>0.7370493443136251</v>
+        <v>0.7370493443136252</v>
       </c>
     </row>
     <row r="378">
@@ -5063,7 +5063,7 @@
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="n">
-        <v>0.2488781669611415</v>
+        <v>0.2488781669611417</v>
       </c>
     </row>
     <row r="386">
@@ -5111,7 +5111,7 @@
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="n">
-        <v>0.4196860145264178</v>
+        <v>0.4196860145264181</v>
       </c>
     </row>
     <row r="390">
@@ -5159,7 +5159,7 @@
       <c r="D393" t="inlineStr"/>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="n">
-        <v>0.5972676705925339</v>
+        <v>0.5972676705925341</v>
       </c>
     </row>
     <row r="394">
@@ -5207,7 +5207,7 @@
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="n">
-        <v>0.7816231351594897</v>
+        <v>0.7816231351594898</v>
       </c>
     </row>
     <row r="398">
@@ -5255,7 +5255,7 @@
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="n">
-        <v>0.9727524082272853</v>
+        <v>0.9727524082272854</v>
       </c>
     </row>
     <row r="402">
@@ -5303,7 +5303,7 @@
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="n">
-        <v>0.2684654394346542</v>
+        <v>0.2684654394346539</v>
       </c>
     </row>
     <row r="406">
@@ -5351,7 +5351,7 @@
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="n">
-        <v>0.4503270876999266</v>
+        <v>0.4503270876999264</v>
       </c>
     </row>
     <row r="410">
@@ -5399,7 +5399,7 @@
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="n">
-        <v>0.6362493301666183</v>
+        <v>0.6362493301666179</v>
       </c>
     </row>
     <row r="414">
@@ -5447,7 +5447,7 @@
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="n">
-        <v>0.8262321668347294</v>
+        <v>0.8262321668347289</v>
       </c>
     </row>
     <row r="418">
@@ -5495,7 +5495,7 @@
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="n">
-        <v>1.02027559770426</v>
+        <v>1.020275597704259</v>
       </c>
     </row>
     <row r="422">
@@ -5543,7 +5543,7 @@
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="n">
-        <v>0.3081208195999177</v>
+        <v>0.3081208195999172</v>
       </c>
     </row>
     <row r="426">
@@ -5591,7 +5591,7 @@
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="n">
-        <v>0.5117514349265487</v>
+        <v>0.5117514349265482</v>
       </c>
     </row>
     <row r="430">
@@ -5639,7 +5639,7 @@
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="n">
-        <v>0.7146300887400214</v>
+        <v>0.7146300887400207</v>
       </c>
     </row>
     <row r="434">
@@ -5687,7 +5687,7 @@
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="n">
-        <v>0.9167567810403356</v>
+        <v>0.916756781040335</v>
       </c>
     </row>
     <row r="438">
@@ -5735,7 +5735,7 @@
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="n">
-        <v>1.118131511827492</v>
+        <v>1.118131511827491</v>
       </c>
     </row>
     <row r="442">
@@ -5783,7 +5783,7 @@
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="n">
-        <v>0.3488385723605534</v>
+        <v>0.3488385723605537</v>
       </c>
     </row>
     <row r="446">
@@ -5831,7 +5831,7 @@
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="n">
-        <v>0.5742162001777853</v>
+        <v>0.5742162001777859</v>
       </c>
     </row>
     <row r="450">
@@ -5879,7 +5879,7 @@
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr"/>
       <c r="F453" t="n">
-        <v>0.7947285009598435</v>
+        <v>0.794728500959844</v>
       </c>
     </row>
     <row r="454">
@@ -5927,7 +5927,7 @@
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="n">
-        <v>1.010375474706728</v>
+        <v>1.010375474706729</v>
       </c>
     </row>
     <row r="458">
@@ -5975,7 +5975,7 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="n">
-        <v>1.221157121418439</v>
+        <v>1.22115712141844</v>
       </c>
     </row>
     <row r="462">
@@ -6023,7 +6023,7 @@
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="n">
-        <v>0.3697081705947312</v>
+        <v>0.3697081705947313</v>
       </c>
     </row>
     <row r="466">
@@ -6119,7 +6119,7 @@
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="n">
-        <v>0.8357275457339151</v>
+        <v>0.8357275457339147</v>
       </c>
     </row>
     <row r="474">
@@ -6263,7 +6263,7 @@
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="n">
-        <v>0.434677843035673</v>
+        <v>0.4346778430356727</v>
       </c>
     </row>
     <row r="486">
@@ -6311,7 +6311,7 @@
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr"/>
       <c r="F489" t="n">
-        <v>0.704804828055797</v>
+        <v>0.7048048280557968</v>
       </c>
     </row>
     <row r="490">
@@ -6359,7 +6359,7 @@
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="n">
-        <v>0.9634205206484463</v>
+        <v>0.963420520648446</v>
       </c>
     </row>
     <row r="494">
@@ -6407,7 +6407,7 @@
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="n">
-        <v>1.210524920813621</v>
+        <v>1.21052492081362</v>
       </c>
     </row>
     <row r="498">
@@ -6503,7 +6503,7 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="n">
-        <v>0.4801264582313489</v>
+        <v>0.4801264582313488</v>
       </c>
     </row>
     <row r="506">
@@ -6551,7 +6551,7 @@
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="n">
-        <v>0.7736577840964036</v>
+        <v>0.7736577840964035</v>
       </c>
     </row>
     <row r="510">
@@ -6599,7 +6599,7 @@
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="n">
-        <v>1.052952304993242</v>
+        <v>1.052952304993241</v>
       </c>
     </row>
     <row r="514">
@@ -6647,7 +6647,7 @@
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="n">
-        <v>1.318010020921864</v>
+        <v>1.318010020921863</v>
       </c>
     </row>
     <row r="518">
@@ -6695,7 +6695,7 @@
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="n">
-        <v>1.568830931882269</v>
+        <v>1.568830931882268</v>
       </c>
     </row>
     <row r="522">
@@ -6743,7 +6743,7 @@
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="n">
-        <v>0.5889367066027664</v>
+        <v>0.5889367066027655</v>
       </c>
     </row>
     <row r="526">
@@ -6791,7 +6791,7 @@
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="n">
-        <v>0.9383292985617304</v>
+        <v>0.9383292985617298</v>
       </c>
     </row>
     <row r="530">
@@ -7079,7 +7079,7 @@
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="n">
-        <v>1.558789805669429</v>
+        <v>1.55878980566943</v>
       </c>
     </row>
     <row r="554">
@@ -7127,7 +7127,7 @@
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="n">
-        <v>1.934853444055056</v>
+        <v>1.934853444055057</v>
       </c>
     </row>
     <row r="558">
@@ -7175,7 +7175,7 @@
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="n">
-        <v>2.286771407283661</v>
+        <v>2.286771407283664</v>
       </c>
     </row>
   </sheetData>
